--- a/Tradicionalni_ML/dataSet/cars-simple-reg.xlsx
+++ b/Tradicionalni_ML/dataSet/cars-simple-reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonDevelopment\ML_scratch\Tradicionalni_ML\dataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C41A8F8-AA30-4DD7-965D-1129C90F2439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B471E-A28A-4827-A575-5F745FBCE7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,12 +998,8 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>1999</v>
-      </c>
-      <c r="B80" s="3">
-        <v>1700</v>
-      </c>
+      <c r="A80" s="4"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
